--- a/data/output/Pedido_Semana_07_15022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_vivero.xlsx
@@ -909,7 +909,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S5" s="2" t="n">
         <v>0</v>
@@ -990,7 +990,7 @@
         <v>3</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" s="2" t="n">
         <v>0</v>
@@ -1152,7 +1152,7 @@
         <v>0</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S8" s="2" t="n">
         <v>0</v>
@@ -1233,13 +1233,13 @@
         <v>0</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S9" s="2" t="n">
         <v>1</v>
       </c>
       <c r="T9" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U9" s="8" t="n">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>21.25</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="R10" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S10" s="2" t="n">
         <v>0</v>
@@ -1395,7 +1395,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S11" s="2" t="n">
         <v>0</v>
@@ -1557,7 +1557,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S13" s="2" t="n">
         <v>0</v>
@@ -1800,7 +1800,7 @@
         <v>0</v>
       </c>
       <c r="R16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S16" s="2" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S22" s="2" t="n">
         <v>0</v>
@@ -2367,7 +2367,7 @@
         <v>2</v>
       </c>
       <c r="R23" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S23" s="2" t="n">
         <v>0</v>
@@ -2529,7 +2529,7 @@
         <v>5</v>
       </c>
       <c r="R25" s="2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S25" s="2" t="n">
         <v>0</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>5.5</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>18.6</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>43.25</v>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
       <c r="R37" s="2" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S37" s="2" t="n">
         <v>0</v>
@@ -3663,7 +3663,7 @@
         <v>0</v>
       </c>
       <c r="R39" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="S39" s="2" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47" s="2" t="n">
         <v>0</v>

--- a/data/output/Pedido_Semana_07_15022026_vivero.xlsx
+++ b/data/output/Pedido_Semana_07_15022026_vivero.xlsx
@@ -727,7 +727,7 @@
         <v>1</v>
       </c>
       <c r="L3" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="6" t="n">
         <v>17.78</v>
@@ -808,7 +808,7 @@
         <v>1</v>
       </c>
       <c r="L4" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="6" t="n">
         <v>19.15</v>
@@ -889,7 +889,7 @@
         <v>1</v>
       </c>
       <c r="L5" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5" s="6" t="n">
         <v>9.57</v>
@@ -970,7 +970,7 @@
         <v>1</v>
       </c>
       <c r="L6" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" s="6" t="n">
         <v>28.72</v>
@@ -1051,7 +1051,7 @@
         <v>1</v>
       </c>
       <c r="L7" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" s="6" t="n">
         <v>28.72</v>
@@ -1132,7 +1132,7 @@
         <v>1</v>
       </c>
       <c r="L8" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" s="6" t="n">
         <v>9.57</v>
@@ -1213,7 +1213,7 @@
         <v>1</v>
       </c>
       <c r="L9" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" s="6" t="n">
         <v>10.65</v>
@@ -1294,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="L10" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" s="6" t="n">
         <v>21.25</v>
@@ -1375,7 +1375,7 @@
         <v>1</v>
       </c>
       <c r="L11" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="6" t="n">
         <v>8.85</v>
@@ -1456,7 +1456,7 @@
         <v>1</v>
       </c>
       <c r="L12" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="6" t="n">
         <v>46.2</v>
@@ -1537,7 +1537,7 @@
         <v>1</v>
       </c>
       <c r="L13" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="6" t="n">
         <v>11.78</v>
@@ -1618,7 +1618,7 @@
         <v>1</v>
       </c>
       <c r="L14" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="6" t="n">
         <v>11.45</v>
@@ -1699,7 +1699,7 @@
         <v>1</v>
       </c>
       <c r="L15" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="6" t="n">
         <v>7.45</v>
@@ -1780,7 +1780,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="6" t="n">
         <v>112.88</v>
@@ -1861,7 +1861,7 @@
         <v>1</v>
       </c>
       <c r="L17" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="6" t="n">
         <v>10.42</v>
@@ -1942,7 +1942,7 @@
         <v>1</v>
       </c>
       <c r="L18" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="6" t="n">
         <v>74.23</v>
@@ -2023,7 +2023,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="6" t="n">
         <v>17.32</v>
@@ -2104,7 +2104,7 @@
         <v>1</v>
       </c>
       <c r="L20" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" s="6" t="n">
         <v>33.2</v>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" s="6" t="n">
         <v>11.88</v>
@@ -2266,7 +2266,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M22" s="6" t="n">
         <v>9.9</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="L23" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" s="6" t="n">
         <v>24.15</v>
@@ -2428,7 +2428,7 @@
         <v>1</v>
       </c>
       <c r="L24" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" s="6" t="n">
         <v>45.45</v>
@@ -2509,7 +2509,7 @@
         <v>2</v>
       </c>
       <c r="L25" s="3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M25" s="6" t="n">
         <v>94.88</v>
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" s="6" t="n">
         <v>24.18</v>
@@ -2671,7 +2671,7 @@
         <v>3</v>
       </c>
       <c r="L27" s="3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M27" s="6" t="n">
         <v>206.4</v>
@@ -2752,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M28" s="6" t="n">
         <v>5.5</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" s="6" t="n">
         <v>11.82</v>
@@ -2914,7 +2914,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="6" t="n">
         <v>9.07</v>
@@ -2995,7 +2995,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M31" s="6" t="n">
         <v>6.7</v>
@@ -3076,7 +3076,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" s="6" t="n">
         <v>9.300000000000001</v>
@@ -3157,7 +3157,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" s="6" t="n">
         <v>18.6</v>
@@ -3238,7 +3238,7 @@
         <v>1</v>
       </c>
       <c r="L34" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M34" s="6" t="n">
         <v>187.35</v>
@@ -3319,7 +3319,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M35" s="6" t="n">
         <v>36.65</v>
@@ -3400,7 +3400,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M36" s="6" t="n">
         <v>32.65</v>
@@ -3481,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="L37" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M37" s="6" t="n">
         <v>43.25</v>
@@ -3562,7 +3562,7 @@
         <v>1</v>
       </c>
       <c r="L38" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M38" s="6" t="n">
         <v>21.62</v>
@@ -3643,7 +3643,7 @@
         <v>1</v>
       </c>
       <c r="L39" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" s="6" t="n">
         <v>43.3</v>
@@ -3724,7 +3724,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" s="6" t="n">
         <v>43.25</v>
@@ -3805,7 +3805,7 @@
         <v>1</v>
       </c>
       <c r="L41" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" s="6" t="n">
         <v>43.98</v>
@@ -3886,7 +3886,7 @@
         <v>1</v>
       </c>
       <c r="L42" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" s="6" t="n">
         <v>181.28</v>
@@ -3967,7 +3967,7 @@
         <v>1</v>
       </c>
       <c r="L43" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" s="6" t="n">
         <v>90.95</v>
@@ -4048,7 +4048,7 @@
         <v>1</v>
       </c>
       <c r="L44" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" s="6" t="n">
         <v>80.65000000000001</v>
@@ -4129,7 +4129,7 @@
         <v>1</v>
       </c>
       <c r="L45" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M45" s="6" t="n">
         <v>45.48</v>
@@ -4210,7 +4210,7 @@
         <v>1</v>
       </c>
       <c r="L46" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" s="6" t="n">
         <v>36.92</v>
@@ -4291,7 +4291,7 @@
         <v>1</v>
       </c>
       <c r="L47" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M47" s="6" t="n">
         <v>36.92</v>
@@ -4372,7 +4372,7 @@
         <v>1</v>
       </c>
       <c r="L48" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M48" s="6" t="n">
         <v>53.47</v>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="L49" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M49" s="6" t="n">
         <v>123.2</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="L50" s="3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M50" s="6" t="n">
         <v>49.2</v>
@@ -4701,7 +4701,7 @@
         </is>
       </c>
       <c r="C64" s="5" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
